--- a/backend/PitScouts.xlsx
+++ b/backend/PitScouts.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,16 +410,31 @@
         <v>name</v>
       </c>
       <c r="C1" t="str">
-        <v>dropdownValue</v>
+        <v>pickupFromFloor</v>
       </c>
       <c r="D1" t="str">
-        <v>weight</v>
+        <v>climb</v>
       </c>
       <c r="E1" t="str">
+        <v>auto</v>
+      </c>
+      <c r="F1" t="str">
+        <v>estimatedCycleTime</v>
+      </c>
+      <c r="G1" t="str">
+        <v>frameSize</v>
+      </c>
+      <c r="H1" t="str">
+        <v>scoringPosition</v>
+      </c>
+      <c r="I1" t="str">
         <v>drivetrain</v>
       </c>
-      <c r="F1" t="str">
-        <v>numberOfMotors</v>
+      <c r="J1" t="str">
+        <v>trap</v>
+      </c>
+      <c r="K1" t="str">
+        <v>robotWeight</v>
       </c>
     </row>
     <row r="2">
@@ -427,19 +442,34 @@
         <v>1148</v>
       </c>
       <c r="B2" t="str">
-        <v>21333333333333</v>
+        <v>cameron</v>
       </c>
       <c r="C2" t="str">
-        <v>Something 1</v>
+        <v>Yes</v>
       </c>
       <c r="D2" t="str">
-        <v>3312121212121212121212121212121212</v>
+        <v>Yes</v>
       </c>
       <c r="E2" t="str">
-        <v>12123123123123123123123123123123123123123123123</v>
+        <v>Yes</v>
       </c>
       <c r="F2" t="str">
-        <v>213131313131313131313</v>
+        <v>20</v>
+      </c>
+      <c r="G2" t="str">
+        <v>30</v>
+      </c>
+      <c r="H2" t="str">
+        <v>Amp</v>
+      </c>
+      <c r="I2" t="str">
+        <v>Westcoast/Tank drive</v>
+      </c>
+      <c r="J2" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="K2" t="str">
+        <v>123</v>
       </c>
     </row>
     <row r="3">
@@ -447,84 +477,74 @@
         <v>1148</v>
       </c>
       <c r="B3" t="str">
-        <v>123123123123123123123123123123123</v>
+        <v>Sergey Safanovich</v>
       </c>
       <c r="C3" t="str">
-        <v>Something 1</v>
+        <v>Yes</v>
       </c>
       <c r="D3" t="str">
-        <v>123123123123123123123123123123</v>
+        <v>Yes</v>
       </c>
       <c r="E3" t="str">
-        <v>321111111111</v>
+        <v>Yes</v>
       </c>
       <c r="F3" t="str">
-        <v>231111111111111111111</v>
+        <v>121</v>
+      </c>
+      <c r="G3" t="str">
+        <v>123</v>
+      </c>
+      <c r="H3" t="str">
+        <v>Amp</v>
+      </c>
+      <c r="I3" t="str">
+        <v>Swerve Drive</v>
+      </c>
+      <c r="J3" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="K3" t="str">
+        <v>123</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>1197</v>
+        <v>1759</v>
       </c>
       <c r="B4" t="str">
-        <v>daniel sulkin</v>
+        <v>Sergey Safanovich</v>
       </c>
       <c r="C4" t="str">
-        <v>Something 2</v>
+        <v>Yes</v>
       </c>
       <c r="D4" t="str">
-        <v>5086</v>
+        <v>Yes</v>
       </c>
       <c r="E4" t="str">
-        <v>eref</v>
+        <v>Yes</v>
       </c>
       <c r="F4" t="str">
-        <v>41141124</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>3408</v>
-      </c>
-      <c r="B5" t="str">
-        <v>4133333333333</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Something 1</v>
-      </c>
-      <c r="D5" t="str">
-        <v>413222</v>
-      </c>
-      <c r="E5" t="str">
-        <v>142222222222</v>
-      </c>
-      <c r="F5" t="str">
-        <v>42111111111</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>3408</v>
-      </c>
-      <c r="B6" t="str">
-        <v>45322222222222</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Something 2</v>
-      </c>
-      <c r="D6" t="str">
-        <v>5433333333333</v>
-      </c>
-      <c r="E6" t="str">
-        <v>453333333333</v>
-      </c>
-      <c r="F6" t="str">
-        <v>45333333333333</v>
+        <v>3123932</v>
+      </c>
+      <c r="G4" t="str">
+        <v>112</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Amp</v>
+      </c>
+      <c r="I4" t="str">
+        <v>Swerve Drive</v>
+      </c>
+      <c r="J4" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="K4" t="str">
+        <v>3244</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/PitScouts.xlsx
+++ b/backend/PitScouts.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,31 +410,16 @@
         <v>name</v>
       </c>
       <c r="C1" t="str">
-        <v>pickupFromFloor</v>
+        <v>dropdownValue</v>
       </c>
       <c r="D1" t="str">
-        <v>climb</v>
+        <v>weight</v>
       </c>
       <c r="E1" t="str">
-        <v>auto</v>
+        <v>drivetrain</v>
       </c>
       <c r="F1" t="str">
-        <v>estimatedCycleTime</v>
-      </c>
-      <c r="G1" t="str">
-        <v>frameSize</v>
-      </c>
-      <c r="H1" t="str">
-        <v>scoringPosition</v>
-      </c>
-      <c r="I1" t="str">
-        <v>drivetrain</v>
-      </c>
-      <c r="J1" t="str">
-        <v>trap</v>
-      </c>
-      <c r="K1" t="str">
-        <v>robotWeight</v>
+        <v>numberOfMotors</v>
       </c>
     </row>
     <row r="2">
@@ -442,34 +427,19 @@
         <v>1148</v>
       </c>
       <c r="B2" t="str">
-        <v>cameron</v>
+        <v>21333333333333</v>
       </c>
       <c r="C2" t="str">
-        <v>Yes</v>
+        <v>Something 1</v>
       </c>
       <c r="D2" t="str">
-        <v>Yes</v>
+        <v>3312121212121212121212121212121212</v>
       </c>
       <c r="E2" t="str">
-        <v>Yes</v>
+        <v>12123123123123123123123123123123123123123123123</v>
       </c>
       <c r="F2" t="str">
-        <v>20</v>
-      </c>
-      <c r="G2" t="str">
-        <v>30</v>
-      </c>
-      <c r="H2" t="str">
-        <v>Amp</v>
-      </c>
-      <c r="I2" t="str">
-        <v>Westcoast/Tank drive</v>
-      </c>
-      <c r="J2" t="str">
-        <v>Yes</v>
-      </c>
-      <c r="K2" t="str">
-        <v>123</v>
+        <v>213131313131313131313</v>
       </c>
     </row>
     <row r="3">
@@ -477,74 +447,84 @@
         <v>1148</v>
       </c>
       <c r="B3" t="str">
-        <v>Sergey Safanovich</v>
+        <v>123123123123123123123123123123123</v>
       </c>
       <c r="C3" t="str">
-        <v>Yes</v>
+        <v>Something 1</v>
       </c>
       <c r="D3" t="str">
-        <v>Yes</v>
+        <v>123123123123123123123123123123</v>
       </c>
       <c r="E3" t="str">
-        <v>Yes</v>
+        <v>321111111111</v>
       </c>
       <c r="F3" t="str">
-        <v>121</v>
-      </c>
-      <c r="G3" t="str">
-        <v>123</v>
-      </c>
-      <c r="H3" t="str">
-        <v>Amp</v>
-      </c>
-      <c r="I3" t="str">
-        <v>Swerve Drive</v>
-      </c>
-      <c r="J3" t="str">
-        <v>Yes</v>
-      </c>
-      <c r="K3" t="str">
-        <v>123</v>
+        <v>231111111111111111111</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>1759</v>
+        <v>1197</v>
       </c>
       <c r="B4" t="str">
-        <v>Sergey Safanovich</v>
+        <v>daniel sulkin</v>
       </c>
       <c r="C4" t="str">
-        <v>Yes</v>
+        <v>Something 2</v>
       </c>
       <c r="D4" t="str">
-        <v>Yes</v>
+        <v>5086</v>
       </c>
       <c r="E4" t="str">
-        <v>Yes</v>
+        <v>eref</v>
       </c>
       <c r="F4" t="str">
-        <v>3123932</v>
-      </c>
-      <c r="G4" t="str">
-        <v>112</v>
-      </c>
-      <c r="H4" t="str">
-        <v>Amp</v>
-      </c>
-      <c r="I4" t="str">
-        <v>Swerve Drive</v>
-      </c>
-      <c r="J4" t="str">
-        <v>Yes</v>
-      </c>
-      <c r="K4" t="str">
-        <v>3244</v>
+        <v>41141124</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>3408</v>
+      </c>
+      <c r="B5" t="str">
+        <v>4133333333333</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Something 1</v>
+      </c>
+      <c r="D5" t="str">
+        <v>413222</v>
+      </c>
+      <c r="E5" t="str">
+        <v>142222222222</v>
+      </c>
+      <c r="F5" t="str">
+        <v>42111111111</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>3408</v>
+      </c>
+      <c r="B6" t="str">
+        <v>45322222222222</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Something 2</v>
+      </c>
+      <c r="D6" t="str">
+        <v>5433333333333</v>
+      </c>
+      <c r="E6" t="str">
+        <v>453333333333</v>
+      </c>
+      <c r="F6" t="str">
+        <v>45333333333333</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F6"/>
   </ignoredErrors>
 </worksheet>
 </file>